--- a/Models/Industry_model/Input/Steel/Data/Steel_available_techs_2015.xlsx
+++ b/Models/Industry_model/Input/Steel/Data/Steel_available_techs_2015.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20388"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A1748A-3759-47FC-A7CD-6DF0D3A0A6F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8A9D14-B78B-415C-9DC9-14F9B2199916}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Technologies</t>
   </si>
@@ -34,13 +34,16 @@
     <t>Max_capacity_t</t>
   </si>
   <si>
-    <t>Max_capacity_resource</t>
-  </si>
-  <si>
     <t>EAF</t>
   </si>
   <si>
     <t>steel</t>
+  </si>
+  <si>
+    <t>Scrap</t>
+  </si>
+  <si>
+    <t>Pellet_making</t>
   </si>
   <si>
     <t>BF-BOF</t>
@@ -104,14 +107,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02A4E62C-02C8-48EB-B7FA-B18989C5FF29}" name="Tableau1" displayName="Tableau1" ref="A1:E3" totalsRowShown="0">
-  <autoFilter ref="A1:E3" xr:uid="{62162119-3315-4C65-87E5-73FD432F0FAE}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02A4E62C-02C8-48EB-B7FA-B18989C5FF29}" name="Tableau1" displayName="Tableau1" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5" xr:uid="{62162119-3315-4C65-87E5-73FD432F0FAE}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5BAD5769-0352-4890-8EF7-40E33CCD08DE}" name="Technologies"/>
     <tableColumn id="2" xr3:uid="{7A1430E5-ACED-4ECC-A844-F6CCF793C19E}" name="Forced_prod_ratio" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{75798A8A-8D1F-4816-A270-F255AF40D133}" name="Max_capacity_t"/>
     <tableColumn id="3" xr3:uid="{3059BE99-11F6-4581-A1D5-F14FB8D289BC}" name="Forced_resource"/>
-    <tableColumn id="5" xr3:uid="{75798A8A-8D1F-4816-A270-F255AF40D133}" name="Max_capacity_t"/>
-    <tableColumn id="6" xr3:uid="{605B6D5B-3F8F-4E80-9D31-611A80441924}" name="Max_capacity_resource"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -380,22 +382,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,39 +405,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5">
+        <v>0.34</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
